--- a/Statistical analysis/notes/Calculation templates.xlsx
+++ b/Statistical analysis/notes/Calculation templates.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandipto.sanyal\OneDrive - Accenture\Documents\Study materials\AMPBA\Term2\Statistical analysis\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1144" documentId="11_F25DC773A252ABDACC104838D99C643C5BDE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1EF6225-98C0-423A-A013-8D46EC3B44EE}"/>
+  <xr:revisionPtr revIDLastSave="1641" documentId="11_F25DC773A252ABDACC104838D99C643C5BDE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{91C6BD84-E316-47D9-9414-EB996D4D6683}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CI" sheetId="1" r:id="rId1"/>
     <sheet name="Hypothesis" sheetId="2" r:id="rId2"/>
     <sheet name="Rough works" sheetId="3" r:id="rId3"/>
     <sheet name="Comparison Of Two means" sheetId="4" r:id="rId4"/>
+    <sheet name="ANOVA - Reject H0" sheetId="5" r:id="rId5"/>
+    <sheet name="ANOVA - Dont Reject H0" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="155">
   <si>
     <t>μ</t>
   </si>
@@ -403,12 +405,391 @@
   <si>
     <t>df2</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proof of relationship between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Total deviation, Treatment deviation and Error deviation</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample 3</t>
+  </si>
+  <si>
+    <t>Sample 4</t>
+  </si>
+  <si>
+    <t>Sample mean (x̅_j )</t>
+  </si>
+  <si>
+    <t>Grand mean X̄̄</t>
+  </si>
+  <si>
+    <t>Sum of squared errors of all treatment deviations (SSTR)</t>
+  </si>
+  <si>
+    <t>Number of observation of each sample * Treatment error square</t>
+  </si>
+  <si>
+    <t>Deviation from own mean (Error deviation) square for Sample 1</t>
+  </si>
+  <si>
+    <t>Deviation from own mean (Error deviation) square for Sample 2</t>
+  </si>
+  <si>
+    <t>Deviation from own mean (Error deviation) square for Sample 3</t>
+  </si>
+  <si>
+    <t>Deviation from own mean (Error deviation) square for Sample 4</t>
+  </si>
+  <si>
+    <t>Deviation from grand mean (Total deviation) square for Sample 1</t>
+  </si>
+  <si>
+    <t>Deviation from grand mean (Total deviation) square for Sample 2</t>
+  </si>
+  <si>
+    <t>Deviation from grand mean (Total deviation) square for Sample 3</t>
+  </si>
+  <si>
+    <t>Deviation from grand mean (Total deviation) square for Sample 4</t>
+  </si>
+  <si>
+    <t>Treatment error square (t_j square)</t>
+  </si>
+  <si>
+    <t>Sum of squared errors of all the samples (SSE)</t>
+  </si>
+  <si>
+    <t>Sum of all Total deviation square for all the samples (SST)</t>
+  </si>
+  <si>
+    <t>SSE + SSTR</t>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sample 1 (From a population with mean =0, sd=1)</t>
+  </si>
+  <si>
+    <t>Sample 2 (From mean = 5, sd=1)</t>
+  </si>
+  <si>
+    <r>
+      <t>Sample 3 (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>μ = 0, σ=1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample 4 (μ = 0, σ=1)</t>
+  </si>
+  <si>
+    <t>Here we will generate random numbers from normally distributed population such a way that out of the 4 populations at least one will have a different mean than the others</t>
+  </si>
+  <si>
+    <t>Here we will generate random numbers from normally distributed populations such a way that all of the 4 populations have same mean.</t>
+  </si>
+  <si>
+    <t>Sample 2 (From mean = 0, sd=1)</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conclusion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The P value is &lt; significance level 0.05 means that atleast one of the samples is drawn from a population with different mean.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Interpretation of the ANOVA table columns:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Between groups SS = SSTR = Sum of squares of treatment deviations. This accounts for deviations of each sample mean from the grand mean X̄̄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Within Groups SS = Sum of squares of error deviations. This accounts for the deviations of each observation of a sample from the respective sample mean X̄.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Total SS = Sum of squares of deviations of each observation from the grand mean X̄̄.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Important points to observe:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. SS Between groups + SS Within groups = SS Total. Already we have proved in cell coordinate B26.
+2. Since one of the samples are coming from a normally distributed population with a different mean the between groups SS is very much high than the within groups SS. This is also evident from the chart alongside. Sample 2 seems to be coming from out of the world population.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conclusion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The P value is &gt; significance level 0.05 means that there is not enough evidence to believe that that the samples have come from different populations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Interpretation of the ANOVA table columns:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Between groups SS = SSTR = Sum of squares of treatment deviations. This accounts for deviations of each sample mean from the grand mean X̄̄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Within Groups SS = Sum of squares of error deviations. This accounts for the deviations of each observation of a sample from the respective sample mean X̄.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Total SS = Sum of squares of deviations of each observation from the grand mean X̄̄.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Important points to observe:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. SS Between groups + SS Within groups = SS Total. Already we have proved in cell coordinate B26.
+2. Since the samples are coming from 4 normally distributed populations with same mean, the between groups SS is much lower than what we saw previously. This is also evident from the chart alongside. All the samples seems to be cluttered around the same region with no distinguishable out of the world points.
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,8 +824,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,8 +846,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -665,11 +1072,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -716,23 +1369,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2358,6 +3082,1700 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ANOVA - Reject H0'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sample 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ANOVA - Reject H0'!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ANOVA - Reject H0'!$B$4:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.10579395997449823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77993231288406328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6589104312137253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17225005916344585</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8852687535290948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6689394083815698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.2921297604722663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61875222174752709</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4777812317788892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.35064776708192597</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1377833079153092</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.73599376549915918</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9875411781508604</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76974285484676164</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51195969472090541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42A0-4448-9DDA-EDC943CE31B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ANOVA - Reject H0'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sample 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ANOVA - Reject H0'!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ANOVA - Reject H0'!$C$4:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>5.7515113054461402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3178223151576232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0446978264918911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4408529262505594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3415389041821526</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2943936421242821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.713825437997416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0847914873372142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6627198692254233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3309673095106564</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3358744263246116</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0054016274225841</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6760672279677831</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42A0-4448-9DDA-EDC943CE31B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ANOVA - Reject H0'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sample 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ANOVA - Reject H0'!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ANOVA - Reject H0'!$D$4:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.96402320104931305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0148207372216276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.827989901782026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58874246548966536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1446684455134026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60971358989683977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2950837212252846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37404309740970471</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0657161829976649</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0446429516213014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.9187718812390058</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6768831735576224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42A0-4448-9DDA-EDC943CE31B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ANOVA - Reject H0'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sample 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ANOVA - Reject H0'!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ANOVA - Reject H0'!$E$4:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.10288905504675501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0958931579233124E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82373777045508267</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.47594830784189124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.72449570432028554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.2445924925585852</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.4395071526840667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.42386821534244867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.9898651612038607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2526840366996792</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58347081325114047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-42A0-4448-9DDA-EDC943CE31B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1240548656"/>
+        <c:axId val="1166622496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1240548656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1166622496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1166622496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1240548656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ANOVA - Dont Reject H0'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sample 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ANOVA - Dont Reject H0'!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ANOVA - Dont Reject H0'!$B$4:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.88308295765702871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3317898107799413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.35527913452347576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34541553662838687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84248668020073836</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87297805487037783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0001919156438923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42860578722450926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.49794925848462329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10418430579815666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.37561733241392</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.92202386760356692</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2098280762078566</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5053705539314164</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.27100522320503706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E23-48EC-A296-15FCD8C1940C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ANOVA - Dont Reject H0'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sample 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ANOVA - Dont Reject H0'!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ANOVA - Dont Reject H0'!$C$4:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.31651740081759133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3665142142904032E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.64899767775715267</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51789996805526806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10181529660021739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5573932187823505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69480713807500505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.9412129507388447</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.21341287367577641</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4418718151845935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1097982077447113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.25502634966106491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14196230230425036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E23-48EC-A296-15FCD8C1940C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ANOVA - Dont Reject H0'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sample 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ANOVA - Dont Reject H0'!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ANOVA - Dont Reject H0'!$D$4:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-0.39899538775502924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.46455741015049057</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87883114924418892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18083441286420709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0450835786747115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42959994885474345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2665617163293694</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8634647436464324E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.46054235996885134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.90777736726373037</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.69575822288258882</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.22870900961163584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E23-48EC-A296-15FCD8C1940C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ANOVA - Dont Reject H0'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sample 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ANOVA - Dont Reject H0'!$A$4:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ANOVA - Dont Reject H0'!$E$4:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.511115104539557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39118943661091166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.50153231251526686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.31946887747577069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18555675787986367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.0434433477136589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.21997064475642381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54075115802840246</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.6256451573543772</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.71634177286796308</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.409631179958375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1E23-48EC-A296-15FCD8C1940C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="127247824"/>
+        <c:axId val="1265998032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="127247824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1265998032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1265998032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127247824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2518,6 +4936,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4578,6 +7076,1046 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4723,6 +8261,88 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1138519</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>106018</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2E32E8-382E-462C-874C-F56F01BFBFB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>138952</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>578223</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00135CC6-3962-4F64-A27F-8D12E1598E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5268,8 +8888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9D9537-D3E3-47D2-A4BC-FB1C8614A7C5}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5283,12 +8903,12 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
       <c r="H1" s="5">
         <f>B2+B3/SQRT(B4)*B7</f>
         <v>1.6448536269514726</v>
@@ -5691,12 +9311,12 @@
       <c r="C20" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
       <c r="H20" s="5">
         <f>B2-B3/SQRT(B4)*B7</f>
         <v>-1.6448536269514726</v>
@@ -6391,11 +10011,11 @@
     </row>
     <row r="56" spans="2:9" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
     </row>
@@ -6896,7 +10516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7912A3-9288-4C9A-9870-AA35607A1ABA}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -6911,49 +10531,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="K1" s="43" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="K1" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
       <c r="Q1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="N2" s="42" t="s">
+      <c r="L2" s="82"/>
+      <c r="N2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="39" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6973,15 +10593,15 @@
       <c r="E3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="K3" s="42" t="s">
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="K3" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="39" t="s">
         <v>75</v>
       </c>
     </row>
@@ -7012,19 +10632,19 @@
       <c r="K4" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="37">
         <v>0</v>
       </c>
       <c r="N4" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="37">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
         <v>102</v>
       </c>
-      <c r="R4" s="39">
+      <c r="R4" s="37">
         <v>5.1242000000000001</v>
       </c>
     </row>
@@ -7052,22 +10672,22 @@
         <f t="shared" ref="G5:G18" si="1">D5-E5</f>
         <v>5</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="37">
         <v>138.43</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="37">
         <v>2.4</v>
       </c>
       <c r="Q5" t="s">
         <v>104</v>
       </c>
-      <c r="R5" s="39">
+      <c r="R5" s="37">
         <f>R4^2</f>
         <v>26.257425640000001</v>
       </c>
@@ -7096,22 +10716,22 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="37">
         <v>35.200000000000003</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="37">
         <v>5.1242000000000001</v>
       </c>
       <c r="Q6" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="39">
+      <c r="R6" s="37">
         <v>15</v>
       </c>
     </row>
@@ -7139,16 +10759,16 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="37">
         <v>40</v>
       </c>
-      <c r="N7" s="38" t="s">
+      <c r="N7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="37">
         <v>15</v>
       </c>
       <c r="Q7" t="s">
@@ -7183,14 +10803,14 @@
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="K8" s="38" t="s">
+      <c r="K8" s="36" t="s">
         <v>76</v>
       </c>
       <c r="L8">
         <f>L6^2/L7</f>
         <v>30.976000000000006</v>
       </c>
-      <c r="N8" s="38"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
@@ -7216,13 +10836,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="K9" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" s="42" t="s">
+      <c r="Q9" s="39" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7250,22 +10870,22 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="37">
         <v>0</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="37">
         <v>0</v>
       </c>
-      <c r="Q10" s="38" t="s">
+      <c r="Q10" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="37">
         <v>6.2106000000000003</v>
       </c>
     </row>
@@ -7293,22 +10913,22 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="37">
         <v>122.81</v>
       </c>
-      <c r="N11" s="38" t="s">
+      <c r="N11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="37">
         <v>3</v>
       </c>
       <c r="Q11" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="37">
         <f>R10^2</f>
         <v>38.571552360000005</v>
       </c>
@@ -7337,22 +10957,22 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="37">
         <v>20.8</v>
       </c>
-      <c r="N12" s="38" t="s">
+      <c r="N12" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="37">
         <v>6.2106000000000003</v>
       </c>
       <c r="Q12" t="s">
         <v>56</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="37">
         <v>15</v>
       </c>
     </row>
@@ -7380,16 +11000,16 @@
         <f t="shared" si="1"/>
         <v>-9</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="37">
         <v>36</v>
       </c>
-      <c r="N13" s="38" t="s">
+      <c r="N13" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="37">
         <v>15</v>
       </c>
       <c r="Q13" t="s">
@@ -7424,14 +11044,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="36" t="s">
         <v>76</v>
       </c>
       <c r="L14">
         <f>L12^2/L13</f>
         <v>12.017777777777779</v>
       </c>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="36" t="s">
         <v>93</v>
       </c>
       <c r="O14">
@@ -7463,14 +11083,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="36" t="s">
         <v>84</v>
       </c>
       <c r="L15">
         <f>SQRT(L8+L14)</f>
         <v>6.5569640671409655</v>
       </c>
-      <c r="N15" s="38" t="s">
+      <c r="N15" s="36" t="s">
         <v>95</v>
       </c>
       <c r="O15">
@@ -7509,16 +11129,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="37">
         <v>0.9</v>
       </c>
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="37">
         <v>0.9</v>
       </c>
       <c r="Q16" t="s">
@@ -7553,14 +11173,14 @@
         <f t="shared" si="1"/>
         <v>-8</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="36" t="s">
         <v>79</v>
       </c>
       <c r="L17">
         <f>(1-L16)/2</f>
         <v>4.9999999999999989E-2</v>
       </c>
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="36" t="s">
         <v>79</v>
       </c>
       <c r="O17">
@@ -7599,14 +11219,14 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="36" t="s">
         <v>80</v>
       </c>
       <c r="L18">
         <f>ABS(_xlfn.NORM.INV(L17,0,1))</f>
         <v>1.6448536269514726</v>
       </c>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="36" t="s">
         <v>96</v>
       </c>
       <c r="O18">
@@ -7615,14 +11235,14 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="36" t="s">
         <v>82</v>
       </c>
       <c r="L19">
         <f>L4-L10</f>
         <v>0</v>
       </c>
-      <c r="N19" s="38" t="s">
+      <c r="N19" s="36" t="s">
         <v>97</v>
       </c>
       <c r="O19">
@@ -7638,14 +11258,14 @@
       <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="36" t="s">
         <v>81</v>
       </c>
       <c r="L20">
         <f>L19+L18*L15</f>
         <v>10.785246127627296</v>
       </c>
-      <c r="N20" s="38" t="s">
+      <c r="N20" s="36" t="s">
         <v>82</v>
       </c>
       <c r="O20">
@@ -7665,14 +11285,14 @@
         <f>AVERAGE(G4:G18)</f>
         <v>3</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="36" t="s">
         <v>85</v>
       </c>
       <c r="L21">
         <f>L19-L18*L15</f>
         <v>-10.785246127627296</v>
       </c>
-      <c r="N21" s="38" t="s">
+      <c r="N21" s="36" t="s">
         <v>81</v>
       </c>
       <c r="O21">
@@ -7692,14 +11312,14 @@
         <f>COUNT(G4:G18)</f>
         <v>15</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="36" t="s">
         <v>86</v>
       </c>
       <c r="L22">
         <f>L5-L11</f>
         <v>15.620000000000005</v>
       </c>
-      <c r="N22" s="38" t="s">
+      <c r="N22" s="36" t="s">
         <v>85</v>
       </c>
       <c r="O22">
@@ -7719,14 +11339,14 @@
         <f>_xlfn.STDEV.S(G4:G18)</f>
         <v>6.2105900340811875</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="36" t="s">
         <v>88</v>
       </c>
       <c r="L23">
         <f>(L22-L19)/L15</f>
         <v>2.3822000303885753</v>
       </c>
-      <c r="N23" s="38" t="s">
+      <c r="N23" s="36" t="s">
         <v>86</v>
       </c>
       <c r="O23">
@@ -7744,14 +11364,14 @@
       <c r="C24" s="1">
         <v>0.95</v>
       </c>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="36" t="s">
         <v>89</v>
       </c>
       <c r="L24">
         <f>1-_xlfn.NORM.DIST(L23,0,1,1)</f>
         <v>8.6047732519727305E-3</v>
       </c>
-      <c r="N24" s="38" t="s">
+      <c r="N24" s="36" t="s">
         <v>98</v>
       </c>
       <c r="O24">
@@ -7771,14 +11391,14 @@
         <f>1-C24</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="K25" s="38" t="s">
+      <c r="K25" s="36" t="s">
         <v>90</v>
       </c>
       <c r="L25">
         <f>L24*2</f>
         <v>1.7209546503945461E-2</v>
       </c>
-      <c r="N25" s="38" t="s">
+      <c r="N25" s="36" t="s">
         <v>99</v>
       </c>
       <c r="O25">
@@ -7798,7 +11418,7 @@
         <f>ABS(_xlfn.T.INV(C25/1,C22-1))</f>
         <v>1.7613101357748921</v>
       </c>
-      <c r="N26" s="38" t="s">
+      <c r="N26" s="36" t="s">
         <v>90</v>
       </c>
       <c r="O26">
@@ -7882,4 +11502,2947 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C876353-9072-4BB7-87B4-FCEB17BE2974}">
+  <dimension ref="A1:S43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="10"/>
+    <col min="6" max="6" width="17.44140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="10" customWidth="1"/>
+    <col min="10" max="13" width="19.77734375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="10"/>
+    <col min="16" max="19" width="17.44140625" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="41" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46">
+        <v>-0.10579395997449823</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.7515113054461402</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.96402320104931305</v>
+      </c>
+      <c r="E4" s="55">
+        <v>-0.10288905504675501</v>
+      </c>
+      <c r="F4" s="60">
+        <f>(B4-B$19)^2</f>
+        <v>0.11823328868440472</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:I16" si="0">(C4-C$19)^2</f>
+        <v>0.68624435076877222</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55629321510355678</v>
+      </c>
+      <c r="I4" s="61">
+        <f t="shared" si="0"/>
+        <v>0.1427342734493556</v>
+      </c>
+      <c r="J4" s="65">
+        <f>(B4-$B$20)^2</f>
+        <v>1.6274323086301019</v>
+      </c>
+      <c r="K4" s="43">
+        <f t="shared" ref="K4:M16" si="1">(C4-$B$20)^2</f>
+        <v>20.991028448075078</v>
+      </c>
+      <c r="L4" s="43">
+        <f t="shared" si="1"/>
+        <v>4.5536905030137769</v>
+      </c>
+      <c r="M4" s="66">
+        <f t="shared" si="1"/>
+        <v>1.6200291229869164</v>
+      </c>
+      <c r="P4" s="46">
+        <f ca="1">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>-1.695877800585762</v>
+      </c>
+      <c r="Q4" s="1">
+        <f ca="1">_xlfn.NORM.INV(RAND(),5,1)</f>
+        <v>4.8805357520693562</v>
+      </c>
+      <c r="R4" s="1">
+        <f ca="1">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>0.14106685350488585</v>
+      </c>
+      <c r="S4" s="55">
+        <f ca="1">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>-1.7545278396499827E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.77993231288406328</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.3178223151576232</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0148207372216276</v>
+      </c>
+      <c r="E5" s="55">
+        <v>-4.0958931579233124E-2</v>
+      </c>
+      <c r="F5" s="60">
+        <f t="shared" ref="F5:F18" si="2">(B5-B$19)^2</f>
+        <v>0.29362916042412063</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1557957285472876</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5202724109021213</v>
+      </c>
+      <c r="I5" s="61">
+        <f t="shared" si="0"/>
+        <v>0.19336424990889975</v>
+      </c>
+      <c r="J5" s="65">
+        <f t="shared" ref="J5:J18" si="3">(B5-$B$20)^2</f>
+        <v>0.15208617773381169</v>
+      </c>
+      <c r="K5" s="43">
+        <f t="shared" si="1"/>
+        <v>17.205138482922042</v>
+      </c>
+      <c r="L5" s="43">
+        <f t="shared" si="1"/>
+        <v>2.405410367442546E-2</v>
+      </c>
+      <c r="M5" s="66">
+        <f t="shared" si="1"/>
+        <v>1.4662146892027395</v>
+      </c>
+      <c r="P5" s="46">
+        <f t="shared" ref="P5:P18" ca="1" si="4">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>-1.258748102456382</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" ref="Q5:Q16" ca="1" si="5">_xlfn.NORM.INV(RAND(),5,1)</f>
+        <v>5.3692768664575263</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5:S15" ca="1" si="6">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>-0.18696794290908342</v>
+      </c>
+      <c r="S5" s="55">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.1752427184662092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>3</v>
+      </c>
+      <c r="B6" s="46">
+        <v>1.6589104312137253</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.0446978264918911</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1.827989901782026</v>
+      </c>
+      <c r="E6" s="55">
+        <v>0.82373777045508267</v>
+      </c>
+      <c r="F6" s="60">
+        <f t="shared" si="2"/>
+        <v>2.018825274597515</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4782957846650041E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5915119523584402</v>
+      </c>
+      <c r="I6" s="61">
+        <f t="shared" si="0"/>
+        <v>1.7015342923382921</v>
+      </c>
+      <c r="J6" s="65">
+        <f t="shared" si="3"/>
+        <v>0.23911693113277765</v>
+      </c>
+      <c r="K6" s="43">
+        <f t="shared" si="1"/>
+        <v>15.013945117187269</v>
+      </c>
+      <c r="L6" s="43">
+        <f t="shared" si="1"/>
+        <v>8.9874313516041688</v>
+      </c>
+      <c r="M6" s="66">
+        <f t="shared" si="1"/>
+        <v>0.11983839151694049</v>
+      </c>
+      <c r="P6" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.1799857028762148</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.2686210983172632</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.2802711354356113</v>
+      </c>
+      <c r="S6" s="55">
+        <f t="shared" ca="1" si="6"/>
+        <v>-2.0025931646205803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>4</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.17225005916344585</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.4408529262505594</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.58874246548966536</v>
+      </c>
+      <c r="E7" s="55">
+        <v>-0.47594830784189124</v>
+      </c>
+      <c r="F7" s="60">
+        <f t="shared" si="2"/>
+        <v>4.3305163359166655E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23257443042530659</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65111181903506021</v>
+      </c>
+      <c r="I7" s="61">
+        <f t="shared" si="0"/>
+        <v>2.249267496475437E-5</v>
+      </c>
+      <c r="J7" s="65">
+        <f t="shared" si="3"/>
+        <v>0.99533451933643358</v>
+      </c>
+      <c r="K7" s="43">
+        <f t="shared" si="1"/>
+        <v>10.699037588907613</v>
+      </c>
+      <c r="L7" s="43">
+        <f t="shared" si="1"/>
+        <v>0.33776104019940445</v>
+      </c>
+      <c r="M7" s="66">
+        <f t="shared" si="1"/>
+        <v>2.7088646838493191</v>
+      </c>
+      <c r="P7" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.47061501955091845</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.3334420459793899</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.0117712119663806</v>
+      </c>
+      <c r="S7" s="55">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.54324862099788773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="B8" s="46">
+        <v>1.8852687535290948</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.3415389041821526</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.1446684455134026</v>
+      </c>
+      <c r="E8" s="55">
+        <v>-0.72449570432028554</v>
+      </c>
+      <c r="F8" s="60">
+        <f t="shared" si="2"/>
+        <v>2.7133074902751049</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5013754782856901</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8573355398891662</v>
+      </c>
+      <c r="I8" s="61">
+        <f t="shared" si="0"/>
+        <v>5.9440757184334801E-2</v>
+      </c>
+      <c r="J8" s="65">
+        <f t="shared" si="3"/>
+        <v>0.51173157695013838</v>
+      </c>
+      <c r="K8" s="43">
+        <f t="shared" si="1"/>
+        <v>4.7159521548790897</v>
+      </c>
+      <c r="L8" s="43">
+        <f t="shared" si="1"/>
+        <v>6.3736789360711095E-4</v>
+      </c>
+      <c r="M8" s="66">
+        <f t="shared" si="1"/>
+        <v>3.588790369392433</v>
+      </c>
+      <c r="P8" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.26746478291549802</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.6566749367553681</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.53555632471898984</v>
+      </c>
+      <c r="S8" s="55">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.3205589442764894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>6</v>
+      </c>
+      <c r="B9" s="46">
+        <v>-1.6689394083815698</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.2943936421242821</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.60971358989683977</v>
+      </c>
+      <c r="E9" s="55">
+        <v>-1.2445924925585852</v>
+      </c>
+      <c r="F9" s="60">
+        <f t="shared" si="2"/>
+        <v>3.6366342257064472</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13784958337017611</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68539543684303383</v>
+      </c>
+      <c r="I9" s="61">
+        <f t="shared" si="0"/>
+        <v>0.5835455634496397</v>
+      </c>
+      <c r="J9" s="65">
+        <f t="shared" si="3"/>
+        <v>8.0590920333666833</v>
+      </c>
+      <c r="K9" s="43">
+        <f t="shared" si="1"/>
+        <v>17.011327437988022</v>
+      </c>
+      <c r="L9" s="43">
+        <f t="shared" si="1"/>
+        <v>0.31382516233987445</v>
+      </c>
+      <c r="M9" s="66">
+        <f t="shared" si="1"/>
+        <v>5.8298444595840984</v>
+      </c>
+      <c r="P9" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.81240236607298</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.8925772016320774</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.24044926656340074</v>
+      </c>
+      <c r="S9" s="55">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.1999629731256956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>7</v>
+      </c>
+      <c r="B10" s="46">
+        <v>-0.2921297604722663</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.713825437997416</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1.2950837212252846</v>
+      </c>
+      <c r="E10" s="55">
+        <v>-0.4395071526840667</v>
+      </c>
+      <c r="F10" s="60">
+        <f t="shared" si="2"/>
+        <v>0.28109770186366934</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3801132453213217E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1597377016560899</v>
+      </c>
+      <c r="I10" s="61">
+        <f t="shared" si="0"/>
+        <v>1.6961053378555285E-3</v>
+      </c>
+      <c r="J10" s="65">
+        <f t="shared" si="3"/>
+        <v>2.1375736875064062</v>
+      </c>
+      <c r="K10" s="43">
+        <f t="shared" si="1"/>
+        <v>12.559304087019353</v>
+      </c>
+      <c r="L10" s="43">
+        <f t="shared" si="1"/>
+        <v>6.0762166823663675</v>
+      </c>
+      <c r="M10" s="66">
+        <f t="shared" si="1"/>
+        <v>2.5902383510624247</v>
+      </c>
+      <c r="P10" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2096734658838349</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.2092624130565177</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.56066203722968166</v>
+      </c>
+      <c r="S10" s="55">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.68753516481568677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>8</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.61875222174752709</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.0847914873372142</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.37404309740970471</v>
+      </c>
+      <c r="E11" s="55">
+        <v>-0.42386821534244867</v>
+      </c>
+      <c r="F11" s="60">
+        <f t="shared" si="2"/>
+        <v>0.14492906663903538</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6140050038492423E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35071935601890114</v>
+      </c>
+      <c r="I11" s="61">
+        <f t="shared" si="0"/>
+        <v>3.2288234174797487E-3</v>
+      </c>
+      <c r="J11" s="65">
+        <f t="shared" si="3"/>
+        <v>0.30377995797154994</v>
+      </c>
+      <c r="K11" s="43">
+        <f t="shared" si="1"/>
+        <v>15.326261108562854</v>
+      </c>
+      <c r="L11" s="43">
+        <f t="shared" si="1"/>
+        <v>0.63341143530823796</v>
+      </c>
+      <c r="M11" s="66">
+        <f t="shared" si="1"/>
+        <v>2.5401436357925515</v>
+      </c>
+      <c r="P11" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.7823983353328079</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.2385077066091199</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.2846863504607493</v>
+      </c>
+      <c r="S11" s="55">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.5065884480917633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>9</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0.4777812317788892</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.6627198692254233</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1.0657161829976649</v>
+      </c>
+      <c r="E12" s="55">
+        <v>-1.9898651612038607</v>
+      </c>
+      <c r="F12" s="60">
+        <f t="shared" si="2"/>
+        <v>5.7467842547740046E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>5.1093754731061072</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7183302341900174</v>
+      </c>
+      <c r="I12" s="61">
+        <f t="shared" si="0"/>
+        <v>2.2776067932951376</v>
+      </c>
+      <c r="J12" s="65">
+        <f t="shared" si="3"/>
+        <v>0.47904858781512799</v>
+      </c>
+      <c r="K12" s="43">
+        <f t="shared" si="1"/>
+        <v>2.228467596824641</v>
+      </c>
+      <c r="L12" s="43">
+        <f t="shared" si="1"/>
+        <v>4.9980449604504731</v>
+      </c>
+      <c r="M12" s="66">
+        <f t="shared" si="1"/>
+        <v>9.9842080864021092</v>
+      </c>
+      <c r="P12" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.10293671734833458</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.510214524170018</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.25478931156466739</v>
+      </c>
+      <c r="S12" s="55">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1.0911132596864521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>10</v>
+      </c>
+      <c r="B13" s="46">
+        <v>-0.35064776708192597</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.3309673095106564</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.0446429516213014</v>
+      </c>
+      <c r="E13" s="55">
+        <v>-1.2526840366996792</v>
+      </c>
+      <c r="F13" s="60">
+        <f t="shared" si="2"/>
+        <v>0.34657297065436116</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16634543235534616</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5947029548466098</v>
+      </c>
+      <c r="I13" s="61">
+        <f t="shared" si="0"/>
+        <v>0.5959733226036753</v>
+      </c>
+      <c r="J13" s="65">
+        <f t="shared" si="3"/>
+        <v>2.3121098867235368</v>
+      </c>
+      <c r="K13" s="43">
+        <f t="shared" si="1"/>
+        <v>17.314359721003999</v>
+      </c>
+      <c r="L13" s="43">
+        <f t="shared" si="1"/>
+        <v>1.5692983789806682E-2</v>
+      </c>
+      <c r="M13" s="66">
+        <f t="shared" si="1"/>
+        <v>5.8689841139720338</v>
+      </c>
+      <c r="P13" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.18817487666319213</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.1422214647714011</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.39627415394123239</v>
+      </c>
+      <c r="S13" s="55">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.59665416019069373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>11</v>
+      </c>
+      <c r="B14" s="46">
+        <v>-1.1377833079153092</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.3358744263246116</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-2.9187718812390058</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0.58347081325114047</v>
+      </c>
+      <c r="F14" s="60">
+        <f t="shared" si="2"/>
+        <v>1.8929357766740942</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17037229317457692</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2932368254933806</v>
+      </c>
+      <c r="I14" s="61">
+        <f t="shared" si="0"/>
+        <v>1.1324402629263057</v>
+      </c>
+      <c r="J14" s="65">
+        <f t="shared" si="3"/>
+        <v>5.3254695955536313</v>
+      </c>
+      <c r="K14" s="43">
+        <f t="shared" si="1"/>
+        <v>17.355221344310781</v>
+      </c>
+      <c r="L14" s="43">
+        <f t="shared" si="1"/>
+        <v>16.717357073400372</v>
+      </c>
+      <c r="M14" s="66">
+        <f t="shared" si="1"/>
+        <v>0.34391630519617244</v>
+      </c>
+      <c r="P14" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5458985743847871</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>4.1824244408201379</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>2.0971320647694434</v>
+      </c>
+      <c r="S14" s="55">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.4078610202236387E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>12</v>
+      </c>
+      <c r="B15" s="46">
+        <v>-0.73599376549915918</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6.0054016274225841</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.6768831735576224</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="60">
+        <f t="shared" si="2"/>
+        <v>0.94877434423747997</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1713494547208081</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80112472255280809</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="65">
+        <f t="shared" si="3"/>
+        <v>3.6324866657646937</v>
+      </c>
+      <c r="K15" s="43">
+        <f t="shared" si="1"/>
+        <v>23.381934873343717</v>
+      </c>
+      <c r="L15" s="43">
+        <f t="shared" si="1"/>
+        <v>0.24307997920385299</v>
+      </c>
+      <c r="M15" s="66"/>
+      <c r="P15" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.6248759145805092</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.8054078719568478</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.33251329707075783</v>
+      </c>
+      <c r="S15" s="55"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>13</v>
+      </c>
+      <c r="B16" s="46">
+        <v>0.9875411781508604</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5.6760672279677831</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="60">
+        <f t="shared" si="2"/>
+        <v>0.56172695613648349</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56694061322854594</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="65">
+        <f t="shared" si="3"/>
+        <v>3.3260061943069033E-2</v>
+      </c>
+      <c r="K16" s="43">
+        <f t="shared" si="1"/>
+        <v>20.305411581997777</v>
+      </c>
+      <c r="L16" s="43"/>
+      <c r="M16" s="66"/>
+      <c r="P16" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2079599272800352</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.9373126676286661</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="55"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>14</v>
+      </c>
+      <c r="B17" s="46">
+        <v>0.76974285484676164</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="60">
+        <f t="shared" si="2"/>
+        <v>0.28269014820644467</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="65">
+        <f t="shared" si="3"/>
+        <v>0.16013741891799774</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="66"/>
+      <c r="P17" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.0311880140442371</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="55"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="48">
+        <v>0.51195969472090541</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="62">
+        <f t="shared" si="2"/>
+        <v>7.5022840703664273E-2</v>
+      </c>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="67">
+        <f t="shared" si="3"/>
+        <v>0.43290464636317877</v>
+      </c>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
+      <c r="P18" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.56698894791173304</v>
+      </c>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="56"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="49">
+        <f>AVERAGE(B4:B18)</f>
+        <v>0.23805671791403632</v>
+      </c>
+      <c r="C19" s="49">
+        <f t="shared" ref="C19:E19" si="7">AVERAGE(C4:C18)</f>
+        <v>4.9231126388798714</v>
+      </c>
+      <c r="D19" s="49">
+        <f t="shared" si="7"/>
+        <v>-0.21817253563192751</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="7"/>
+        <v>-0.48069095214278018</v>
+      </c>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="1">
+        <f>AVERAGE(B4:E18)</f>
+        <v>1.1699145916273566</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="31"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+    </row>
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="74">
+        <f>SUM(F4:I18)</f>
+        <v>50.830483687482598</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="31"/>
+      <c r="G21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="1">
+        <f>(B19-$B$20)^2</f>
+        <v>0.86835909680151036</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:E22" si="8">(C19-$B$20)^2</f>
+        <v>14.086495581900092</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="8"/>
+        <v>1.9267858728629319</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="8"/>
+        <v>2.7244986611247088</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="1">
+        <f>COUNT(B4:B18)*B22</f>
+        <v>13.025386452022655</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:E23" si="9">COUNT(C4:C18)*C22</f>
+        <v>183.12444256470118</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="9"/>
+        <v>23.121430474355183</v>
+      </c>
+      <c r="E23" s="31">
+        <f t="shared" si="9"/>
+        <v>29.969485272371799</v>
+      </c>
+      <c r="G23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="73">
+        <f>SUM(B23:E23)</f>
+        <v>249.24074476345081</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="31"/>
+      <c r="G24" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="12">
+        <f>SUM(J4:M18)</f>
+        <v>300.07122845093346</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="31"/>
+      <c r="G25" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="70">
+        <v>15</v>
+      </c>
+      <c r="I25" s="70">
+        <v>3.5708507687105446</v>
+      </c>
+      <c r="J25" s="70">
+        <v>0.23805671791403632</v>
+      </c>
+      <c r="K25" s="70">
+        <v>0.95544125740617736</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="53">
+        <f>B21+B24</f>
+        <v>300.0712284509334</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="33"/>
+      <c r="G26" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="70">
+        <v>13</v>
+      </c>
+      <c r="I26" s="70">
+        <v>64.000464305438328</v>
+      </c>
+      <c r="J26" s="70">
+        <v>4.9231126388798714</v>
+      </c>
+      <c r="K26" s="70">
+        <v>0.91524558152675206</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G27" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="70">
+        <v>12</v>
+      </c>
+      <c r="I27" s="70">
+        <v>-2.6180704275831301</v>
+      </c>
+      <c r="J27" s="70">
+        <v>-0.21817253563192751</v>
+      </c>
+      <c r="K27" s="70">
+        <v>1.7981611062626532</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="71">
+        <v>11</v>
+      </c>
+      <c r="I28" s="71">
+        <v>-5.2876004735705822</v>
+      </c>
+      <c r="J28" s="71">
+        <v>-0.48069095214278018</v>
+      </c>
+      <c r="K28" s="71">
+        <v>0.66915869365859426</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G32" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G33" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="73">
+        <v>249.24074476345089</v>
+      </c>
+      <c r="I33" s="70">
+        <v>3</v>
+      </c>
+      <c r="J33" s="70">
+        <v>83.080248254483635</v>
+      </c>
+      <c r="K33" s="70">
+        <v>76.819486746735649</v>
+      </c>
+      <c r="L33" s="75">
+        <v>3.8500274666151392E-18</v>
+      </c>
+      <c r="M33" s="70">
+        <v>2.8023551760961714</v>
+      </c>
+    </row>
+    <row r="34" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G34" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="74">
+        <v>50.830483687482577</v>
+      </c>
+      <c r="I34" s="70">
+        <v>47</v>
+      </c>
+      <c r="J34" s="70">
+        <v>1.0814996529251613</v>
+      </c>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+    </row>
+    <row r="35" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+    </row>
+    <row r="36" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="12">
+        <v>300.07122845093346</v>
+      </c>
+      <c r="I36" s="71">
+        <v>50</v>
+      </c>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+    </row>
+    <row r="38" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G38" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+    </row>
+    <row r="39" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+    </row>
+    <row r="40" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+    </row>
+    <row r="41" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+    </row>
+    <row r="42" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+    </row>
+    <row r="43" spans="7:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G38:M43"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F249E2C-4374-4F6A-80C9-4EA3F3FB6AC2}">
+  <dimension ref="A1:S64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="10"/>
+    <col min="6" max="6" width="17.44140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="10" customWidth="1"/>
+    <col min="10" max="13" width="19.77734375" style="10" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="10"/>
+    <col min="16" max="19" width="17.44140625" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="41" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.88308295765702871</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.31651740081759133</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-0.39899538775502924</v>
+      </c>
+      <c r="E4" s="55">
+        <v>1.511115104539557</v>
+      </c>
+      <c r="F4" s="60">
+        <f>(B4-B$19)^2</f>
+        <v>0.31387572581983153</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:I16" si="0">(C4-C$19)^2</f>
+        <v>5.0442036217678711E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9382273201984349E-2</v>
+      </c>
+      <c r="I4" s="61">
+        <f t="shared" si="0"/>
+        <v>2.3913598838286707</v>
+      </c>
+      <c r="J4" s="65">
+        <f>(B4-$B$20)^2</f>
+        <v>0.6398363004371469</v>
+      </c>
+      <c r="K4" s="43">
+        <f t="shared" ref="K4:M16" si="1">(C4-$B$20)^2</f>
+        <v>5.4443880272617727E-2</v>
+      </c>
+      <c r="L4" s="43">
+        <f t="shared" si="1"/>
+        <v>0.23249819291104076</v>
+      </c>
+      <c r="M4" s="66">
+        <f t="shared" si="1"/>
+        <v>2.0389835940135033</v>
+      </c>
+      <c r="P4" s="46">
+        <f ca="1">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>-7.3196884600783024E-2</v>
+      </c>
+      <c r="Q4" s="46">
+        <f ca="1">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>-2.1000807692605594</v>
+      </c>
+      <c r="R4" s="1">
+        <f ca="1">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>-2.0874930926500696E-3</v>
+      </c>
+      <c r="S4" s="55">
+        <f ca="1">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>-0.56773472974367811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.3317898107799413</v>
+      </c>
+      <c r="C5" s="46">
+        <v>-2.3665142142904032E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-0.46455741015049057</v>
+      </c>
+      <c r="E5" s="55">
+        <v>0.39118943661091166</v>
+      </c>
+      <c r="F5" s="60">
+        <f t="shared" ref="F5:F18" si="2">(B5-B$19)^2</f>
+        <v>8.0155901043873839E-5</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3360931855896529E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12062466793567399</v>
+      </c>
+      <c r="I5" s="61">
+        <f t="shared" si="0"/>
+        <v>0.18188226540925476</v>
+      </c>
+      <c r="J5" s="65">
+        <f t="shared" ref="J5:J18" si="3">(B5-$B$20)^2</f>
+        <v>6.1804214500833538E-2</v>
+      </c>
+      <c r="K5" s="43">
+        <f t="shared" si="1"/>
+        <v>1.1417011948567663E-2</v>
+      </c>
+      <c r="L5" s="43">
+        <f t="shared" si="1"/>
+        <v>0.30002205069914739</v>
+      </c>
+      <c r="M5" s="66">
+        <f t="shared" si="1"/>
+        <v>9.4866562690585271E-2</v>
+      </c>
+      <c r="P5" s="46">
+        <f t="shared" ref="P5:Q18" ca="1" si="4">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>0.18478782877125322</v>
+      </c>
+      <c r="Q5" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.52004048841168637</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" ref="R5:S15" ca="1" si="5">_xlfn.NORM.INV(RAND(),0,1)</f>
+        <v>-1.7036520890363371</v>
+      </c>
+      <c r="S5" s="55">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.60842417591712827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>3</v>
+      </c>
+      <c r="B6" s="46">
+        <v>-0.35527913452347576</v>
+      </c>
+      <c r="C6" s="46">
+        <v>-0.64899767775715267</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.87883114924418892</v>
+      </c>
+      <c r="E6" s="55">
+        <v>-0.50153231251526686</v>
+      </c>
+      <c r="F6" s="60">
+        <f t="shared" si="2"/>
+        <v>0.45984125859990743</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54896545866439383</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99217125799066952</v>
+      </c>
+      <c r="I6" s="61">
+        <f t="shared" si="0"/>
+        <v>0.21738456634747344</v>
+      </c>
+      <c r="J6" s="65">
+        <f t="shared" si="3"/>
+        <v>0.19225103967016396</v>
+      </c>
+      <c r="K6" s="43">
+        <f t="shared" si="1"/>
+        <v>0.53609187839786021</v>
+      </c>
+      <c r="L6" s="43">
+        <f t="shared" si="1"/>
+        <v>0.63305235493099687</v>
+      </c>
+      <c r="M6" s="66">
+        <f t="shared" si="1"/>
+        <v>0.34189465881847947</v>
+      </c>
+      <c r="P6" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.35984663815397788</v>
+      </c>
+      <c r="Q6" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.54154885440657352</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.5903013037854534</v>
+      </c>
+      <c r="S6" s="55">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.0258448141254961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>4</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.34541553662838687</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.51789996805526806</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.18083441286420709</v>
+      </c>
+      <c r="E7" s="55">
+        <v>-0.31946887747577069</v>
+      </c>
+      <c r="F7" s="60">
+        <f t="shared" si="2"/>
+        <v>5.0979808429892277E-4</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18145522289515786</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>8.885240258576714E-2</v>
+      </c>
+      <c r="I7" s="61">
+        <f t="shared" si="0"/>
+        <v>8.0759263238829371E-2</v>
+      </c>
+      <c r="J7" s="65">
+        <f t="shared" si="3"/>
+        <v>6.8764709365277329E-2</v>
+      </c>
+      <c r="K7" s="43">
+        <f t="shared" si="1"/>
+        <v>0.18897686311744405</v>
+      </c>
+      <c r="L7" s="43">
+        <f t="shared" si="1"/>
+        <v>9.535353846928659E-3</v>
+      </c>
+      <c r="M7" s="66">
+        <f t="shared" si="1"/>
+        <v>0.16213036765517108</v>
+      </c>
+      <c r="P7" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.273064949477271</v>
+      </c>
+      <c r="Q7" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.95048153402068258</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.8881160062977287</v>
+      </c>
+      <c r="S7" s="55">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.71775823525364846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="B8" s="46">
+        <v>0.84248668020073836</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0.10181529660021739</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1.0450835786747115</v>
+      </c>
+      <c r="E8" s="55">
+        <v>0.18555675787986367</v>
+      </c>
+      <c r="F8" s="60">
+        <f t="shared" si="2"/>
+        <v>0.27003596891465048</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7830725212905573E-5</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86088110926695938</v>
+      </c>
+      <c r="I8" s="61">
+        <f t="shared" si="0"/>
+        <v>4.8772024647554632E-2</v>
+      </c>
+      <c r="J8" s="65">
+        <f t="shared" si="3"/>
+        <v>0.57653862177274151</v>
+      </c>
+      <c r="K8" s="43">
+        <f t="shared" si="1"/>
+        <v>3.4707765165379473E-4</v>
+      </c>
+      <c r="L8" s="43">
+        <f t="shared" si="1"/>
+        <v>1.2729906093925689</v>
+      </c>
+      <c r="M8" s="66">
+        <f t="shared" si="1"/>
+        <v>1.0479920214850207E-2</v>
+      </c>
+      <c r="P8" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.80716190502959961</v>
+      </c>
+      <c r="Q8" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.72316862613287947</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.36822980238106418</v>
+      </c>
+      <c r="S8" s="55">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.22602216413927995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>6</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0.87297805487037783</v>
+      </c>
+      <c r="C9" s="46">
+        <v>-1.5573932187823505</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.42959994885474345</v>
+      </c>
+      <c r="E9" s="55">
+        <v>-1.0434433477136589</v>
+      </c>
+      <c r="F9" s="60">
+        <f t="shared" si="2"/>
+        <v>0.30265536952616023</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7202484592750107</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29904135411707206</v>
+      </c>
+      <c r="I9" s="61">
+        <f t="shared" si="0"/>
+        <v>1.0163789509440166</v>
+      </c>
+      <c r="J9" s="65">
+        <f t="shared" si="3"/>
+        <v>0.62377263288128115</v>
+      </c>
+      <c r="K9" s="43">
+        <f t="shared" si="1"/>
+        <v>2.6914977989434381</v>
+      </c>
+      <c r="L9" s="43">
+        <f t="shared" si="1"/>
+        <v>0.12000312527320794</v>
+      </c>
+      <c r="M9" s="66">
+        <f t="shared" si="1"/>
+        <v>1.2692920567331161</v>
+      </c>
+      <c r="P9" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.78134348740592607</v>
+      </c>
+      <c r="Q9" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.23845077414807139</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.44377998580287503</v>
+      </c>
+      <c r="S9" s="55">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.86720397040278718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>7</v>
+      </c>
+      <c r="B10" s="46">
+        <v>2.0001919156438923</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.69480713807500505</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.2665617163293694</v>
+      </c>
+      <c r="E10" s="55">
+        <v>-0.21997064475642381</v>
+      </c>
+      <c r="F10" s="60">
+        <f t="shared" si="2"/>
+        <v>2.8135200901171573</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36346765009620202</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9149259779407819</v>
+      </c>
+      <c r="I10" s="61">
+        <f t="shared" si="0"/>
+        <v>3.4107999089364016E-2</v>
+      </c>
+      <c r="J10" s="65">
+        <f t="shared" si="3"/>
+        <v>3.6749144548015726</v>
+      </c>
+      <c r="K10" s="43">
+        <f t="shared" si="1"/>
+        <v>0.37408130164574871</v>
+      </c>
+      <c r="L10" s="43">
+        <f t="shared" si="1"/>
+        <v>1.4003797985159621</v>
+      </c>
+      <c r="M10" s="66">
+        <f t="shared" si="1"/>
+        <v>9.190351254858152E-2</v>
+      </c>
+      <c r="P10" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.20725073222076995</v>
+      </c>
+      <c r="Q10" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.13291240534512386</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.8843477871920264</v>
+      </c>
+      <c r="S10" s="55">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.1126332225441558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>8</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0.42860578722450926</v>
+      </c>
+      <c r="C11" s="46">
+        <v>-1.9412129507388447</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.8634647436464324E-2</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0.54075115802840246</v>
+      </c>
+      <c r="F11" s="60">
+        <f t="shared" si="2"/>
+        <v>1.1187072739995429E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1336473040951329</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4299022058652042E-2</v>
+      </c>
+      <c r="I11" s="61">
+        <f t="shared" si="0"/>
+        <v>0.33182011405752304</v>
+      </c>
+      <c r="J11" s="65">
+        <f t="shared" si="3"/>
+        <v>0.11931532927959938</v>
+      </c>
+      <c r="K11" s="43">
+        <f t="shared" si="1"/>
+        <v>4.0981881821522901</v>
+      </c>
+      <c r="L11" s="43">
+        <f t="shared" si="1"/>
+        <v>1.9847585434540128E-3</v>
+      </c>
+      <c r="M11" s="66">
+        <f t="shared" si="1"/>
+        <v>0.20936653600565167</v>
+      </c>
+      <c r="P11" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.91860990764569428</v>
+      </c>
+      <c r="Q11" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.419724298718956</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.6830220209106956</v>
+      </c>
+      <c r="S11" s="55">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.54387510401820127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>9</v>
+      </c>
+      <c r="B12" s="46">
+        <v>-0.49794925848462329</v>
+      </c>
+      <c r="C12" s="46">
+        <v>-0.21341287367577641</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.46054235996885134</v>
+      </c>
+      <c r="E12" s="55">
+        <v>-0.6256451573543772</v>
+      </c>
+      <c r="F12" s="60">
+        <f t="shared" si="2"/>
+        <v>0.67368979973136089</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3230823231641377E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11785184941426664</v>
+      </c>
+      <c r="I12" s="61">
+        <f t="shared" si="0"/>
+        <v>0.34852259556002491</v>
+      </c>
+      <c r="J12" s="65">
+        <f t="shared" si="3"/>
+        <v>0.33771734766697037</v>
+      </c>
+      <c r="K12" s="43">
+        <f t="shared" si="1"/>
+        <v>8.7970462644400116E-2</v>
+      </c>
+      <c r="L12" s="43">
+        <f t="shared" si="1"/>
+        <v>0.29563974258063935</v>
+      </c>
+      <c r="M12" s="66">
+        <f t="shared" si="1"/>
+        <v>0.50244058385472168</v>
+      </c>
+      <c r="P12" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5811737572167139</v>
+      </c>
+      <c r="Q12" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.25714314257243431</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.23639565329966467</v>
+      </c>
+      <c r="S12" s="55">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.0942306964747639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>10</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0.10418430579815666</v>
+      </c>
+      <c r="C13" s="46">
+        <v>1.4418718151845935</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.90777736726373037</v>
+      </c>
+      <c r="E13" s="55">
+        <v>-0.71634177286796308</v>
+      </c>
+      <c r="F13" s="60">
+        <f t="shared" si="2"/>
+        <v>4.7808925455801843E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8223581451870439</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62493859601611068</v>
+      </c>
+      <c r="I13" s="61">
+        <f t="shared" si="0"/>
+        <v>0.46383542091723051</v>
+      </c>
+      <c r="J13" s="65">
+        <f t="shared" si="3"/>
+        <v>4.4095923452991978E-4</v>
+      </c>
+      <c r="K13" s="43">
+        <f t="shared" si="1"/>
+        <v>1.8460291106010389</v>
+      </c>
+      <c r="L13" s="43">
+        <f t="shared" si="1"/>
+        <v>0.98200696119055819</v>
+      </c>
+      <c r="M13" s="66">
+        <f t="shared" si="1"/>
+        <v>0.63924350255434004</v>
+      </c>
+      <c r="P13" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.6804262359705977</v>
+      </c>
+      <c r="Q13" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.24508325965394748</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.17573876434425417</v>
+      </c>
+      <c r="S13" s="55">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.1865218044898969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>11</v>
+      </c>
+      <c r="B14" s="46">
+        <v>1.37561733241392</v>
+      </c>
+      <c r="C14" s="46">
+        <v>2.1097982077447113</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.69575822288258882</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0.409631179958375</v>
+      </c>
+      <c r="F14" s="60">
+        <f t="shared" si="2"/>
+        <v>1.1083467905194113</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0718148854834721</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33467547975208278</v>
+      </c>
+      <c r="I14" s="61">
+        <f t="shared" si="0"/>
+        <v>0.19795230623036134</v>
+      </c>
+      <c r="J14" s="65">
+        <f t="shared" si="3"/>
+        <v>1.670380619342529</v>
+      </c>
+      <c r="K14" s="43">
+        <f t="shared" si="1"/>
+        <v>4.1071599733840918</v>
+      </c>
+      <c r="L14" s="43">
+        <f t="shared" si="1"/>
+        <v>0.60675297511669635</v>
+      </c>
+      <c r="M14" s="66">
+        <f t="shared" si="1"/>
+        <v>0.10656692793240367</v>
+      </c>
+      <c r="P14" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.66126441275550119</v>
+      </c>
+      <c r="Q14" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.47384158160759648</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.87573508602219441</v>
+      </c>
+      <c r="S14" s="55">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.77058559153243522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>12</v>
+      </c>
+      <c r="B15" s="46">
+        <v>-0.92202386760356692</v>
+      </c>
+      <c r="C15" s="46">
+        <v>0.25502634966106491</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.22870900961163584</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="60">
+        <f t="shared" si="2"/>
+        <v>1.5496781514049325</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6602260653744204E-2</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2423826742977512E-2</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="65">
+        <f t="shared" si="3"/>
+        <v>1.0104454232427023</v>
+      </c>
+      <c r="K15" s="43">
+        <f t="shared" si="1"/>
+        <v>2.9529354450228879E-2</v>
+      </c>
+      <c r="L15" s="43">
+        <f t="shared" si="1"/>
+        <v>9.7278045663561991E-2</v>
+      </c>
+      <c r="M15" s="66"/>
+      <c r="P15" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.12477814204950892</v>
+      </c>
+      <c r="Q15" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.79164457634522989</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0260707636150477</v>
+      </c>
+      <c r="S15" s="55"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>13</v>
+      </c>
+      <c r="B16" s="46">
+        <v>1.2098280762078566</v>
+      </c>
+      <c r="C16" s="46">
+        <v>0.14196230230425036</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="60">
+        <f t="shared" si="2"/>
+        <v>0.7867534744355682</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.503796167761892E-3</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="65">
+        <f t="shared" si="3"/>
+        <v>1.2693239982980054</v>
+      </c>
+      <c r="K16" s="43">
+        <f t="shared" si="1"/>
+        <v>3.4547387709727749E-3</v>
+      </c>
+      <c r="L16" s="43"/>
+      <c r="M16" s="66"/>
+      <c r="P16" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.2777148706369349</v>
+      </c>
+      <c r="Q16" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.41252931021076084</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="55"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>14</v>
+      </c>
+      <c r="B17" s="46">
+        <v>-1.5053705539314164</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="60">
+        <f t="shared" si="2"/>
+        <v>3.3423422312697131</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="65">
+        <f t="shared" si="3"/>
+        <v>2.5235096261657772</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="66"/>
+      <c r="P17" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.54610224865571289</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="55"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="46">
+        <v>-0.27100522320503706</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="62">
+        <f t="shared" si="2"/>
+        <v>0.35264838175380631</v>
+      </c>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="67">
+        <f t="shared" si="3"/>
+        <v>0.12545091002960521</v>
+      </c>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
+      <c r="P18" s="46">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.81419685629921057</v>
+      </c>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="56"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="49">
+        <f>AVERAGE(B4:B18)</f>
+        <v>0.32283682797844582</v>
+      </c>
+      <c r="C19" s="49">
+        <f t="shared" ref="C19:E19" si="6">AVERAGE(C4:C18)</f>
+        <v>9.1924355026590257E-2</v>
+      </c>
+      <c r="D19" s="49">
+        <f t="shared" si="6"/>
+        <v>-0.1172467884648387</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="6"/>
+        <v>-3.5287134151486446E-2</v>
+      </c>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="1">
+        <f>AVERAGE(B4:E18)</f>
+        <v>8.3185276427018576E-2</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="31"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+    </row>
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="74">
+        <f>SUM(F4:I18)</f>
+        <v>36.844011206115304</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="31"/>
+      <c r="G21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="1">
+        <f>(B19-$B$20)^2</f>
+        <v>5.7432866161006395E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:E22" si="7">(C19-$B$20)^2</f>
+        <v>7.6371494769491739E-5</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="7"/>
+        <v>4.0173012636813686E-2</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="7"/>
+        <v>1.4035712068281869E-2</v>
+      </c>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:19" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="1">
+        <f>COUNT(B4:B18)*B22</f>
+        <v>0.86149299241509592</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:E23" si="8">COUNT(C4:C18)*C22</f>
+        <v>9.9282943200339267E-4</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="8"/>
+        <v>0.48207615164176421</v>
+      </c>
+      <c r="E23" s="31">
+        <f t="shared" si="8"/>
+        <v>0.15439283275110055</v>
+      </c>
+      <c r="G23" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="73">
+        <f>SUM(B23:E23)</f>
+        <v>1.498954806239964</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="31"/>
+      <c r="G24" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="12">
+        <f>SUM(J4:M18)</f>
+        <v>38.342966012355248</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="31"/>
+      <c r="G25" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="70">
+        <v>15</v>
+      </c>
+      <c r="I25" s="70">
+        <v>4.8425524196766876</v>
+      </c>
+      <c r="J25" s="70">
+        <v>0.32283682797844582</v>
+      </c>
+      <c r="K25" s="70">
+        <v>0.85949808530525995</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="53">
+        <f>B21+B24</f>
+        <v>38.342966012355269</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="33"/>
+      <c r="G26" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="70">
+        <v>13</v>
+      </c>
+      <c r="I26" s="70">
+        <v>1.1950166153456734</v>
+      </c>
+      <c r="J26" s="70">
+        <v>9.1924355026590257E-2</v>
+      </c>
+      <c r="K26" s="70">
+        <v>1.1690162337123624</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G27" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="70">
+        <v>12</v>
+      </c>
+      <c r="I27" s="70">
+        <v>-1.4069614615780643</v>
+      </c>
+      <c r="J27" s="70">
+        <v>-0.1172467884648387</v>
+      </c>
+      <c r="K27" s="70">
+        <v>0.49727889245663626</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="71">
+        <v>11</v>
+      </c>
+      <c r="I28" s="71">
+        <v>-0.38815847566635092</v>
+      </c>
+      <c r="J28" s="71">
+        <v>-3.5287134151486446E-2</v>
+      </c>
+      <c r="K28" s="71">
+        <v>0.53127753902703034</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G32" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="H32" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G33" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="73">
+        <v>1.4989548062399578</v>
+      </c>
+      <c r="I33" s="70">
+        <v>3</v>
+      </c>
+      <c r="J33" s="70">
+        <v>0.49965160207998593</v>
+      </c>
+      <c r="K33" s="70">
+        <v>0.63737971325612819</v>
+      </c>
+      <c r="L33" s="75">
+        <v>0.59470372139536709</v>
+      </c>
+      <c r="M33" s="70">
+        <v>2.8023551760961714</v>
+      </c>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G34" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="74">
+        <v>36.84401120611529</v>
+      </c>
+      <c r="I34" s="70">
+        <v>47</v>
+      </c>
+      <c r="J34" s="70">
+        <v>0.78391513204500618</v>
+      </c>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+    </row>
+    <row r="36" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="12">
+        <v>38.342966012355248</v>
+      </c>
+      <c r="I36" s="71">
+        <v>50</v>
+      </c>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+    </row>
+    <row r="38" spans="7:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+    </row>
+    <row r="39" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+    </row>
+    <row r="40" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+    </row>
+    <row r="41" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+    </row>
+    <row r="42" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+    </row>
+    <row r="43" spans="7:14" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+    </row>
+    <row r="44" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="76"/>
+    </row>
+    <row r="46" spans="7:14" x14ac:dyDescent="0.3">
+      <c r="L46" s="77"/>
+    </row>
+    <row r="49" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+    </row>
+    <row r="50" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+    </row>
+    <row r="51" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+    </row>
+    <row r="52" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52"/>
+      <c r="M52"/>
+    </row>
+    <row r="53" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53"/>
+      <c r="M53"/>
+    </row>
+    <row r="54" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54"/>
+      <c r="M54"/>
+    </row>
+    <row r="55" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55"/>
+      <c r="M55"/>
+    </row>
+    <row r="56" spans="7:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56"/>
+      <c r="M56"/>
+    </row>
+    <row r="57" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+    </row>
+    <row r="58" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+    </row>
+    <row r="59" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+    </row>
+    <row r="60" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+    </row>
+    <row r="61" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+    </row>
+    <row r="62" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+    </row>
+    <row r="63" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+    </row>
+    <row r="64" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G38:M43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>